--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -491,10 +491,10 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>18000</v>
@@ -521,10 +521,10 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1">
-        <v>15.25</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1">
         <v>40000</v>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -458,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>16</v>
@@ -467,7 +467,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="F2" s="1">
         <v>0.3</v>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -503,10 +503,10 @@
         <v>0.3</v>
       </c>
       <c r="G3" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1">
         <v>0.15</v>
@@ -533,10 +533,10 @@
         <v>0.3</v>
       </c>
       <c r="G4" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1">
         <v>0.3</v>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Espesor [m]</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>e0</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -51,7 +60,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +71,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -93,12 +108,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -403,22 +427,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -452,6 +477,9 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
@@ -479,10 +507,13 @@
         <v>25</v>
       </c>
       <c r="I2" s="1">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0.15</v>
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -509,10 +540,13 @@
         <v>30</v>
       </c>
       <c r="I3" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0.29</v>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -543,6 +577,9 @@
       </c>
       <c r="J4" s="1">
         <v>0.2</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -60,7 +60,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,12 +71,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -108,15 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -433,17 +424,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -495,7 +486,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="1">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F2" s="1">
         <v>0.3</v>
@@ -512,7 +503,7 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -545,7 +536,7 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -578,7 +569,7 @@
       <c r="J4" s="1">
         <v>0.2</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -486,7 +486,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="F2" s="1">
         <v>0.3</v>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -474,10 +474,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>16</v>
@@ -498,10 +498,10 @@
         <v>25</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>11</v>
@@ -509,7 +509,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
@@ -531,10 +531,10 @@
         <v>30</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>11</v>
@@ -564,7 +564,7 @@
         <v>35</v>
       </c>
       <c r="I4" s="1">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="J4" s="1">
         <v>0.2</v>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Espesor [m]</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>tipo</t>
-  </si>
-  <si>
-    <t>e</t>
   </si>
   <si>
     <t>c</t>
@@ -418,7 +415,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -474,13 +471,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="D2" s="1">
         <v>18</v>
@@ -498,79 +495,13 @@
         <v>25</v>
       </c>
       <c r="I2" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J2" s="1">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
-        <v>18000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1">
-        <v>40000</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>35</v>
-      </c>
-      <c r="H4" s="1">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -474,7 +474,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>17.5</v>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Espesor [m]</t>
   </si>
@@ -99,12 +99,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -415,23 +421,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -469,38 +475,71 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="3">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
         <v>15</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="D2" s="3">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
         <v>17.5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>25000</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="1">
         <v>0.3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G3" s="1">
         <v>15</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H3" s="1">
         <v>25</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I3" s="1">
         <v>0.2</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J3" s="1">
         <v>0.8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -477,7 +477,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -31,7 +31,7 @@
     <t>E (kPa)</t>
   </si>
   <si>
-    <t>poisson</t>
+    <t>Coef.Poisson</t>
   </si>
   <si>
     <t>cohesion [kPa]</t>
@@ -57,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +68,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -107,10 +113,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Espesor [m]</t>
   </si>
@@ -49,7 +49,7 @@
     <t>tipo</t>
   </si>
   <si>
-    <t>c</t>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -57,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,12 +68,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -113,10 +107,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -427,7 +421,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -481,71 +475,104 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>15</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>17</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>12000</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>0.3</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>12</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>23</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>0.3</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>0.49</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="3">
         <v>15</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
         <v>17.5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>18</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>25000</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F4" s="1">
         <v>0.3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G4" s="1">
         <v>15</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H4" s="1">
         <v>25</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I4" s="1">
         <v>0.2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J4" s="1">
         <v>0.8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Espesor [m]</t>
   </si>
@@ -99,18 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -421,23 +415,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -480,7 +474,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="C2" s="1">
         <v>15</v>
@@ -495,7 +489,7 @@
         <v>0.3</v>
       </c>
       <c r="G2" s="1">
-        <v>12</v>
+        <v>12.89</v>
       </c>
       <c r="H2" s="1">
         <v>23</v>
@@ -510,69 +504,36 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="D3" s="1">
         <v>18</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>25000</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>0.3</v>
       </c>
-      <c r="G3" s="3">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3">
-        <v>23</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.49</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1">
-        <v>25000</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="G3" s="1">
+        <v>15.65</v>
+      </c>
+      <c r="H3" s="1">
+        <v>25.9</v>
+      </c>
+      <c r="I3" s="1">
         <v>0.2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J3" s="1">
         <v>0.8</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -506,7 +506,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Espesor [m]</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>0-34</t>
   </si>
 </sst>
 </file>
@@ -57,7 +60,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +71,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -99,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -107,8 +116,20 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -415,23 +436,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -471,10 +492,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>0.65</v>
       </c>
       <c r="B2" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>15</v>
@@ -483,10 +504,10 @@
         <v>17</v>
       </c>
       <c r="E2" s="1">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="F2" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
         <v>12.89</v>
@@ -495,7 +516,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="J2" s="1">
         <v>0.49</v>
@@ -506,7 +527,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
-        <v>30</v>
+        <v>2.1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
@@ -516,10 +537,10 @@
         <v>18</v>
       </c>
       <c r="E3" s="1">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="F3" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>15.65</v>
@@ -528,12 +549,45 @@
         <v>25.9</v>
       </c>
       <c r="I3" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J3" s="1">
         <v>0.8</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="3">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>11</v>
       </c>
     </row>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Espesor [m]</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>e</t>
-  </si>
-  <si>
-    <t>0-34</t>
   </si>
 </sst>
 </file>
@@ -60,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,12 +68,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -108,21 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -436,23 +418,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -492,7 +474,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
-        <v>0.65</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -507,13 +489,13 @@
         <v>10000</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G2" s="1">
-        <v>12.89</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1">
         <v>0.25</v>
@@ -527,7 +509,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
-        <v>2.1</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
@@ -537,16 +519,16 @@
         <v>18</v>
       </c>
       <c r="E3" s="1">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G3" s="1">
-        <v>15.65</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1">
-        <v>25.9</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1">
         <v>0.25</v>
@@ -555,39 +537,6 @@
         <v>0.8</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="3">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3">
-        <v>32000</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="K4" s="5" t="s">
         <v>11</v>
       </c>
     </row>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -99,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -109,9 +109,6 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -425,7 +422,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.862142857142858" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="15.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
@@ -434,7 +431,7 @@
     <col min="8" max="8" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -477,7 +474,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>15</v>
@@ -486,7 +483,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="F2" s="1">
         <v>0.3</v>
@@ -519,7 +516,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="1">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="F3" s="1">
         <v>0.3</v>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -531,7 +531,7 @@
         <v>0.25</v>
       </c>
       <c r="J3" s="1">
-        <v>0.8</v>
+        <v>0.987</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>11</v>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -49,7 +49,7 @@
     <t>tipo</t>
   </si>
   <si>
-    <t>e</t>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -528,10 +528,10 @@
         <v>30</v>
       </c>
       <c r="I3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J3" s="1">
         <v>0.25</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.987</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>11</v>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -49,7 +49,7 @@
     <t>tipo</t>
   </si>
   <si>
-    <t>c</t>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
     <col min="11" max="11" style="4" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -483,7 +483,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="F2" s="1">
         <v>0.3</v>
@@ -504,19 +504,19 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1">
         <v>25</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1">
-        <v>40000</v>
+        <v>5000</v>
       </c>
       <c r="F3" s="1">
         <v>0.3</v>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Espesor [m]</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
     <col min="11" max="11" style="4" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,12 +472,12 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>15</v>
@@ -483,7 +486,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="F2" s="1">
         <v>0.3</v>
@@ -495,16 +498,16 @@
         <v>25</v>
       </c>
       <c r="I2" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1">
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <v>25</v>
       </c>
@@ -516,7 +519,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="1">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="F3" s="1">
         <v>0.3</v>
@@ -528,13 +531,13 @@
         <v>30</v>
       </c>
       <c r="I3" s="1">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="J3" s="1">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/datos_terreno.xlsx
+++ b/datos_terreno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Espesor [m]</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>e</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
 </sst>
 </file>
@@ -474,19 +471,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="D2" s="1">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="F2" s="1">
         <v>0.3</v>
@@ -509,17 +506,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="D3" s="1">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="E3" s="1">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="F3" s="1">
         <v>0.3</v>
@@ -537,7 +534,7 @@
         <v>0.35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
